--- a/data/DeltaValues.xlsx
+++ b/data/DeltaValues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6047585\Documents\GitHub\InterLabCompare\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32618D53-94D6-41F4-93D9-CCEAFA8AC166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA34B97-DD68-4B98-9AA0-8CFE9C489720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16545" windowHeight="8775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,9 @@
   </sheetPr>
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -418,13 +420,13 @@
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="15" width="12.5703125" style="1"/>
-    <col min="16" max="16" width="22.42578125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="12.5703125" style="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
@@ -441,19 +443,19 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -470,19 +472,19 @@
         <v>9.1362179186779358E-2</v>
       </c>
       <c r="E2" s="1">
+        <v>0.51703600653670279</v>
+      </c>
+      <c r="F2" s="1">
         <v>-0.19044518316235892</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.7095548168376411</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.22192392503595992</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.70022677432793101</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.51703600653670279</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -499,19 +501,19 @@
         <v>0.3675329916151</v>
       </c>
       <c r="E3" s="1">
+        <v>0.87352784766954983</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.21400804213523283</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.6540080421352323</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.60782492080679962</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.92516492239449732</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.87352784766954983</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,19 +530,19 @@
         <v>8.382357815044017E-2</v>
       </c>
       <c r="E4" s="1">
+        <v>0.48275514455613866</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.95614508828870504</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1.5661450882887051</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.91975763719054004</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1.5200369449291249</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.48275514455613866</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -557,19 +559,19 @@
         <v>9.0563445534398213E-2</v>
       </c>
       <c r="E5" s="1">
+        <v>0.39452271962734997</v>
+      </c>
+      <c r="F5" s="1">
         <v>-0.55829265389228766</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3.6707346107712313E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-2.1501564971619924E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.59198620893105403</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.39452271962734997</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,19 +588,19 @@
         <v>-7.5303632718011215E-3</v>
       </c>
       <c r="E6" s="1">
+        <v>0.75888643632717212</v>
+      </c>
+      <c r="F6" s="1">
         <v>-0.18581132348195517</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>-0.34581132348195531</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>-0.16640789353002017</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1.0387803965970601</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.75888643632717212</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,19 +617,19 @@
         <v>0.18629843183230044</v>
       </c>
       <c r="E7" s="1">
+        <v>0.78081888430197566</v>
+      </c>
+      <c r="F7" s="1">
         <v>4.3152363919515047E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.94315236391951496</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.66947800968780991</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1.6033067039268249</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.78081888430197566</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,19 +646,19 @@
         <v>2.4139164895499832E-2</v>
       </c>
       <c r="E8" s="1">
+        <v>0.45334134401685056</v>
+      </c>
+      <c r="F8" s="1">
         <v>-0.18532707114369984</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-0.31032707114369984</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>-0.18204172773787122</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.13796694491359007</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.45334134401685056</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,19 +675,19 @@
         <v>0.10775457859854853</v>
       </c>
       <c r="E9" s="1">
+        <v>0.41455681287169988</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.3421341442488699</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1.15213414424887</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.44280291952053097</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1.6523409459267855</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.41455681287169988</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,19 +704,19 @@
         <v>0.24996071344939885</v>
       </c>
       <c r="E10" s="1">
+        <v>0.38820524337847395</v>
+      </c>
+      <c r="F10" s="1">
         <v>1.1889212782712013</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1.1389212782712015</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.41341199545540874</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1.6149222115444593</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.38820524337847395</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -731,19 +733,19 @@
         <v>9.8506692740899737E-2</v>
       </c>
       <c r="E11" s="1">
+        <v>1.0023519160940992</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.76796836390771972</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>2.4179683639077201</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1.3810514321260197</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1.5274737932927556</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.0023519160940992</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
